--- a/Data Structure/Blind/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Data Structure/Blind/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/Blind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70018877-BD45-524A-9F06-5AFE4C9BFC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F563E134-B43F-B148-8335-DD5189DDBE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1232,14 +1232,27 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,8 +1260,11 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,22 +1276,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,43 +1513,43 @@
     <col min="6" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="26" customFormat="1" ht="306" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="13" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1721,17 +1721,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="16" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -1818,17 +1818,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" ht="118" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="118" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -2018,20 +2018,20 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="89" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -2170,20 +2170,20 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="142" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
     </row>
     <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -2271,20 +2271,20 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -2389,20 +2389,20 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
     </row>
     <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
@@ -2473,20 +2473,20 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
     </row>
     <row r="60" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -2659,20 +2659,20 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
     </row>
     <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
@@ -2913,20 +2913,20 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
     </row>
     <row r="86" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">

--- a/Data Structure/Blind/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Data Structure/Blind/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/Blind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F563E134-B43F-B148-8335-DD5189DDBE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EC9ADC-C842-CA47-8896-39E863A0E8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:L1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -1733,7 +1733,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
